--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -12,20 +12,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -164,7 +151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -881,7 +868,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Language"/>
+      <sheetName val="Task"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -911,7 +898,7 @@
         </row>
         <row r="6">
           <cell r="C6">
-            <v>1</v>
+            <v>301001</v>
           </cell>
           <cell r="D6" t="str">
             <v>更大，更好</v>
@@ -919,7 +906,7 @@
         </row>
         <row r="7">
           <cell r="C7">
-            <v>2</v>
+            <v>301002</v>
           </cell>
           <cell r="D7" t="str">
             <v>将大本营升至{0}级</v>
@@ -927,7 +914,7 @@
         </row>
         <row r="8">
           <cell r="C8">
-            <v>3</v>
+            <v>301003</v>
           </cell>
           <cell r="D8" t="str">
             <v>偷金手</v>
@@ -935,7 +922,7 @@
         </row>
         <row r="9">
           <cell r="C9">
-            <v>4</v>
+            <v>301004</v>
           </cell>
           <cell r="D9" t="str">
             <v>偷水手</v>
@@ -943,7 +930,7 @@
         </row>
         <row r="10">
           <cell r="C10">
-            <v>5</v>
+            <v>301005</v>
           </cell>
           <cell r="D10" t="str">
             <v>偷油手</v>
@@ -951,7 +938,7 @@
         </row>
         <row r="11">
           <cell r="C11">
-            <v>6</v>
+            <v>301006</v>
           </cell>
           <cell r="D11" t="str">
             <v>获得{0}金币</v>
@@ -959,7 +946,7 @@
         </row>
         <row r="12">
           <cell r="C12">
-            <v>7</v>
+            <v>301007</v>
           </cell>
           <cell r="D12" t="str">
             <v>获得{0}圣水</v>
@@ -967,7 +954,7 @@
         </row>
         <row r="13">
           <cell r="C13">
-            <v>8</v>
+            <v>301008</v>
           </cell>
           <cell r="D13" t="str">
             <v>获得{0}石油</v>
@@ -1240,7 +1227,7 @@
   <dimension ref="B2:V59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1252,8 +1239,8 @@
     <col min="5" max="5" width="9" style="3"/>
     <col min="6" max="6" width="10.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="7.38333333333333" style="3" customWidth="1"/>
-    <col min="9" max="9" width="6.40833333333333" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.6416666666667" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.0833333333333" style="3" customWidth="1"/>
     <col min="10" max="10" width="9.125" style="3" customWidth="1"/>
     <col min="11" max="11" width="15.425" style="3" customWidth="1"/>
     <col min="12" max="12" width="14.125" style="3" customWidth="1"/>
@@ -1508,10 +1495,10 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="3:14">
       <c r="C7" s="1">
-        <v>900001</v>
+        <v>100001</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1">
         <v>5</v>
@@ -1520,18 +1507,18 @@
         <v>2</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>301001</v>
       </c>
       <c r="I7" s="1">
-        <v>2</v>
+        <v>302001</v>
       </c>
       <c r="J7" s="1" t="str">
-        <f>VLOOKUP(H:H,[1]Language!$C:$D,2)</f>
+        <f>VLOOKUP(H:H,[1]Task!$C:$D,2,FALSE)</f>
         <v>更大，更好</v>
       </c>
-      <c r="K7" s="1" t="str">
-        <f>VLOOKUP(I:I,[1]Language!$C:$D,2)</f>
-        <v>将大本营升至{0}级</v>
+      <c r="K7" s="1" t="e">
+        <f>VLOOKUP(I:I,[1]Task!$C:$D,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="L7" s="1">
         <v>2</v>
@@ -1545,10 +1532,10 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="3:22">
       <c r="C8" s="1">
-        <v>900002</v>
+        <v>100002</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1">
         <v>5</v>
@@ -1557,18 +1544,18 @@
         <v>5</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>301002</v>
       </c>
       <c r="I8" s="1">
-        <v>2</v>
+        <v>302002</v>
       </c>
       <c r="J8" s="1" t="str">
-        <f>VLOOKUP(H:H,[1]Language!$C:$D,2)</f>
-        <v>更大，更好</v>
-      </c>
-      <c r="K8" s="1" t="str">
-        <f>VLOOKUP(I:I,[1]Language!$C:$D,2)</f>
+        <f>VLOOKUP(H:H,[1]Task!$C:$D,2,FALSE)</f>
         <v>将大本营升至{0}级</v>
+      </c>
+      <c r="K8" s="1" t="e">
+        <f>VLOOKUP(I:I,[1]Task!$C:$D,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="L8" s="2">
         <v>5</v>
@@ -1583,10 +1570,10 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="3:22">
       <c r="C9" s="1">
-        <v>900003</v>
+        <v>100003</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1">
         <v>5</v>
@@ -1595,18 +1582,18 @@
         <v>8</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>301003</v>
       </c>
       <c r="I9" s="1">
-        <v>2</v>
+        <v>302003</v>
       </c>
       <c r="J9" s="1" t="str">
-        <f>VLOOKUP(H:H,[1]Language!$C:$D,2)</f>
-        <v>更大，更好</v>
-      </c>
-      <c r="K9" s="1" t="str">
-        <f>VLOOKUP(I:I,[1]Language!$C:$D,2)</f>
-        <v>将大本营升至{0}级</v>
+        <f>VLOOKUP(H:H,[1]Task!$C:$D,2,FALSE)</f>
+        <v>偷金手</v>
+      </c>
+      <c r="K9" s="1" t="e">
+        <f>VLOOKUP(I:I,[1]Task!$C:$D,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="L9" s="2">
         <v>8</v>
@@ -1623,6 +1610,8 @@
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="M10" s="1"/>
@@ -1630,10 +1619,10 @@
     </row>
     <row r="11" s="2" customFormat="1" spans="3:22">
       <c r="C11" s="2">
-        <v>900011</v>
+        <v>110001</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F11" s="2">
         <v>3</v>
@@ -1641,19 +1630,19 @@
       <c r="G11" s="2">
         <v>100000</v>
       </c>
-      <c r="H11" s="2">
-        <v>3</v>
-      </c>
-      <c r="I11" s="2">
-        <v>6</v>
+      <c r="H11" s="1">
+        <v>301005</v>
+      </c>
+      <c r="I11" s="1">
+        <v>302005</v>
       </c>
       <c r="J11" s="1" t="str">
-        <f>VLOOKUP(H:H,[1]Language!$C:$D,2)</f>
-        <v>偷金手</v>
-      </c>
-      <c r="K11" s="1" t="str">
-        <f>VLOOKUP(I:I,[1]Language!$C:$D,2)</f>
-        <v>获得{0}金币</v>
+        <f>VLOOKUP(H:H,[1]Task!$C:$D,2,FALSE)</f>
+        <v>偷油手</v>
+      </c>
+      <c r="K11" s="1" t="e">
+        <f>VLOOKUP(I:I,[1]Task!$C:$D,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="L11" s="2">
         <v>100000</v>
@@ -1668,10 +1657,10 @@
     </row>
     <row r="12" s="2" customFormat="1" spans="3:22">
       <c r="C12" s="2">
-        <v>900012</v>
+        <v>110002</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F12" s="2">
         <v>3</v>
@@ -1679,19 +1668,19 @@
       <c r="G12" s="2">
         <v>1000000</v>
       </c>
-      <c r="H12" s="2">
-        <v>3</v>
-      </c>
-      <c r="I12" s="2">
-        <v>6</v>
+      <c r="H12" s="1">
+        <v>301006</v>
+      </c>
+      <c r="I12" s="1">
+        <v>302006</v>
       </c>
       <c r="J12" s="1" t="str">
-        <f>VLOOKUP(H:H,[1]Language!$C:$D,2)</f>
-        <v>偷金手</v>
-      </c>
-      <c r="K12" s="1" t="str">
-        <f>VLOOKUP(I:I,[1]Language!$C:$D,2)</f>
+        <f>VLOOKUP(H:H,[1]Task!$C:$D,2,FALSE)</f>
         <v>获得{0}金币</v>
+      </c>
+      <c r="K12" s="1" t="e">
+        <f>VLOOKUP(I:I,[1]Task!$C:$D,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="L12" s="2">
         <v>1000000</v>
@@ -1706,10 +1695,10 @@
     </row>
     <row r="13" s="2" customFormat="1" spans="3:22">
       <c r="C13" s="2">
-        <v>900013</v>
+        <v>110003</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F13" s="2">
         <v>3</v>
@@ -1717,19 +1706,19 @@
       <c r="G13" s="2">
         <v>10000000</v>
       </c>
-      <c r="H13" s="2">
-        <v>3</v>
-      </c>
-      <c r="I13" s="2">
-        <v>6</v>
+      <c r="H13" s="1">
+        <v>301007</v>
+      </c>
+      <c r="I13" s="1">
+        <v>302007</v>
       </c>
       <c r="J13" s="1" t="str">
-        <f>VLOOKUP(H:H,[1]Language!$C:$D,2)</f>
-        <v>偷金手</v>
-      </c>
-      <c r="K13" s="1" t="str">
-        <f>VLOOKUP(I:I,[1]Language!$C:$D,2)</f>
-        <v>获得{0}金币</v>
+        <f>VLOOKUP(H:H,[1]Task!$C:$D,2,FALSE)</f>
+        <v>获得{0}圣水</v>
+      </c>
+      <c r="K13" s="1" t="e">
+        <f>VLOOKUP(I:I,[1]Task!$C:$D,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="L13" s="2">
         <v>10000000</v>
@@ -1744,10 +1733,10 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="3:22">
       <c r="C14" s="2">
-        <v>900014</v>
+        <v>110004</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2">
         <v>3</v>
@@ -1755,19 +1744,19 @@
       <c r="G14" s="2">
         <v>100000</v>
       </c>
-      <c r="H14" s="2">
-        <v>4</v>
-      </c>
-      <c r="I14" s="2">
-        <v>7</v>
+      <c r="H14" s="1">
+        <v>301008</v>
+      </c>
+      <c r="I14" s="1">
+        <v>302008</v>
       </c>
       <c r="J14" s="1" t="str">
-        <f>VLOOKUP(H:H,[1]Language!$C:$D,2)</f>
-        <v>偷水手</v>
-      </c>
-      <c r="K14" s="1" t="str">
-        <f>VLOOKUP(I:I,[1]Language!$C:$D,2)</f>
-        <v>获得{0}圣水</v>
+        <f>VLOOKUP(H:H,[1]Task!$C:$D,2,FALSE)</f>
+        <v>获得{0}石油</v>
+      </c>
+      <c r="K14" s="1" t="e">
+        <f>VLOOKUP(I:I,[1]Task!$C:$D,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="L14" s="2">
         <v>100000</v>
@@ -1782,10 +1771,10 @@
     </row>
     <row r="15" s="2" customFormat="1" spans="3:22">
       <c r="C15" s="2">
-        <v>900015</v>
+        <v>110005</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F15" s="2">
         <v>3</v>
@@ -1793,19 +1782,19 @@
       <c r="G15" s="2">
         <v>1000000</v>
       </c>
-      <c r="H15" s="2">
-        <v>4</v>
-      </c>
-      <c r="I15" s="2">
-        <v>7</v>
-      </c>
-      <c r="J15" s="1" t="str">
-        <f>VLOOKUP(H:H,[1]Language!$C:$D,2)</f>
-        <v>偷水手</v>
-      </c>
-      <c r="K15" s="1" t="str">
-        <f>VLOOKUP(I:I,[1]Language!$C:$D,2)</f>
-        <v>获得{0}圣水</v>
+      <c r="H15" s="1">
+        <v>301009</v>
+      </c>
+      <c r="I15" s="1">
+        <v>302009</v>
+      </c>
+      <c r="J15" s="1" t="e">
+        <f>VLOOKUP(H:H,[1]Task!$C:$D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K15" s="1" t="e">
+        <f>VLOOKUP(I:I,[1]Task!$C:$D,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="L15" s="2">
         <v>1000000</v>
@@ -1820,10 +1809,10 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="3:22">
       <c r="C16" s="2">
-        <v>900016</v>
+        <v>110006</v>
       </c>
       <c r="E16" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2">
         <v>3</v>
@@ -1831,19 +1820,19 @@
       <c r="G16" s="2">
         <v>10000000</v>
       </c>
-      <c r="H16" s="2">
-        <v>4</v>
-      </c>
-      <c r="I16" s="2">
-        <v>7</v>
-      </c>
-      <c r="J16" s="1" t="str">
-        <f>VLOOKUP(H:H,[1]Language!$C:$D,2)</f>
-        <v>偷水手</v>
-      </c>
-      <c r="K16" s="1" t="str">
-        <f>VLOOKUP(I:I,[1]Language!$C:$D,2)</f>
-        <v>获得{0}圣水</v>
+      <c r="H16" s="1">
+        <v>301010</v>
+      </c>
+      <c r="I16" s="1">
+        <v>302010</v>
+      </c>
+      <c r="J16" s="1" t="e">
+        <f>VLOOKUP(H:H,[1]Task!$C:$D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K16" s="1" t="e">
+        <f>VLOOKUP(I:I,[1]Task!$C:$D,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="L16" s="2">
         <v>10000000</v>
@@ -1858,10 +1847,10 @@
     </row>
     <row r="17" s="2" customFormat="1" spans="3:22">
       <c r="C17" s="2">
-        <v>900017</v>
+        <v>110007</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F17" s="2">
         <v>3</v>
@@ -1869,19 +1858,19 @@
       <c r="G17" s="2">
         <v>100000</v>
       </c>
-      <c r="H17" s="2">
-        <v>5</v>
-      </c>
-      <c r="I17" s="2">
-        <v>8</v>
-      </c>
-      <c r="J17" s="1" t="str">
-        <f>VLOOKUP(H:H,[1]Language!$C:$D,2)</f>
-        <v>偷油手</v>
-      </c>
-      <c r="K17" s="1" t="str">
-        <f>VLOOKUP(I:I,[1]Language!$C:$D,2)</f>
-        <v>获得{0}石油</v>
+      <c r="H17" s="1">
+        <v>301011</v>
+      </c>
+      <c r="I17" s="1">
+        <v>302011</v>
+      </c>
+      <c r="J17" s="1" t="e">
+        <f>VLOOKUP(H:H,[1]Task!$C:$D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K17" s="1" t="e">
+        <f>VLOOKUP(I:I,[1]Task!$C:$D,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="L17" s="2">
         <v>100000</v>
@@ -1896,10 +1885,10 @@
     </row>
     <row r="18" s="2" customFormat="1" spans="3:22">
       <c r="C18" s="2">
-        <v>900018</v>
+        <v>110008</v>
       </c>
       <c r="E18" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F18" s="2">
         <v>3</v>
@@ -1907,19 +1896,19 @@
       <c r="G18" s="2">
         <v>1000000</v>
       </c>
-      <c r="H18" s="2">
-        <v>5</v>
-      </c>
-      <c r="I18" s="2">
-        <v>8</v>
-      </c>
-      <c r="J18" s="1" t="str">
-        <f>VLOOKUP(H:H,[1]Language!$C:$D,2)</f>
-        <v>偷油手</v>
-      </c>
-      <c r="K18" s="1" t="str">
-        <f>VLOOKUP(I:I,[1]Language!$C:$D,2)</f>
-        <v>获得{0}石油</v>
+      <c r="H18" s="1">
+        <v>301012</v>
+      </c>
+      <c r="I18" s="1">
+        <v>302012</v>
+      </c>
+      <c r="J18" s="1" t="e">
+        <f>VLOOKUP(H:H,[1]Task!$C:$D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K18" s="1" t="e">
+        <f>VLOOKUP(I:I,[1]Task!$C:$D,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="L18" s="2">
         <v>1000000</v>
@@ -1934,10 +1923,10 @@
     </row>
     <row r="19" s="2" customFormat="1" spans="3:22">
       <c r="C19" s="2">
-        <v>900019</v>
+        <v>110009</v>
       </c>
       <c r="E19" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F19" s="2">
         <v>3</v>
@@ -1945,19 +1934,19 @@
       <c r="G19" s="2">
         <v>10000000</v>
       </c>
-      <c r="H19" s="2">
-        <v>5</v>
-      </c>
-      <c r="I19" s="2">
-        <v>8</v>
-      </c>
-      <c r="J19" s="1" t="str">
-        <f>VLOOKUP(H:H,[1]Language!$C:$D,2)</f>
-        <v>偷油手</v>
-      </c>
-      <c r="K19" s="1" t="str">
-        <f>VLOOKUP(I:I,[1]Language!$C:$D,2)</f>
-        <v>获得{0}石油</v>
+      <c r="H19" s="1">
+        <v>301013</v>
+      </c>
+      <c r="I19" s="1">
+        <v>302013</v>
+      </c>
+      <c r="J19" s="1" t="e">
+        <f>VLOOKUP(H:H,[1]Task!$C:$D,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K19" s="1" t="e">
+        <f>VLOOKUP(I:I,[1]Task!$C:$D,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="L19" s="2">
         <v>10000000</v>
